--- a/support.xlsx
+++ b/support.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/GitHub/PolymorphicWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D50F7CD4-E313-664A-A382-00DAAC9B749F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D72A21A-4C02-A046-BA97-3D91CFC1BE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{9D5057AB-D315-7C41-88C6-01D9E06E97C9}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
-  <si>
-    <t>$74, 700</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Sponsor</t>
   </si>
@@ -59,9 +56,6 @@
     <t>End</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>NSF</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>Vandal Ideas Program</t>
   </si>
   <si>
-    <t xml:space="preserve">T. Soule, C. Hall, D. Bukvich, R. Caisely, D. Bennett, J. Nicotra, D. Kelly-Riley, G. Tanner, B. Clevely, R. Bird. </t>
-  </si>
-  <si>
     <t>Polymorphic Games – an interdisciplinary game design studio.</t>
   </si>
   <si>
@@ -137,13 +128,16 @@
     <t>Darwin's Demons</t>
   </si>
   <si>
-    <t>TotalAward</t>
-  </si>
-  <si>
-    <t>StudioFunding</t>
-  </si>
-  <si>
     <t>Projects</t>
+  </si>
+  <si>
+    <t>Total Award</t>
+  </si>
+  <si>
+    <t>Studio Funding</t>
+  </si>
+  <si>
+    <t>Soule, Hall, Bukvich, Caisely, Bennett, Nicotra, Kelly-Riley, Tanner, Clevely, Bird</t>
   </si>
 </sst>
 </file>
@@ -151,7 +145,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -216,20 +210,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -237,6 +221,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,254 +543,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31851310-7B8B-5343-AAA4-0D05CB1EDC35}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="48.33203125" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>936605</v>
+      </c>
+      <c r="B2" s="6">
+        <v>234492</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>35</v>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44652</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45748</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>936605</v>
-      </c>
-      <c r="B2" s="2">
-        <v>234492</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>5830709</v>
+      </c>
+      <c r="B3" s="6">
+        <v>400000</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44075</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45536</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>74700</v>
+      </c>
+      <c r="B4" s="7">
+        <v>74700</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7" t="s">
+      <c r="G4" s="2">
+        <v>43647</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44013</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>33801</v>
+      </c>
+      <c r="B5" s="7">
+        <v>33801</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2">
+        <v>43282</v>
+      </c>
+      <c r="H5" s="2">
+        <v>43647</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>67600</v>
+      </c>
+      <c r="B6" s="7">
+        <v>67600</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="6">
-        <v>44652</v>
-      </c>
-      <c r="I2" s="6">
-        <v>45748</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>42917</v>
+      </c>
+      <c r="H6" s="2">
+        <v>43282</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>5830709</v>
-      </c>
-      <c r="B3" s="2">
-        <v>400000</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>99328</v>
+      </c>
+      <c r="B7" s="7">
+        <v>99328</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="6">
-        <v>44075</v>
-      </c>
-      <c r="I3" s="6">
-        <v>45536</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2">
+        <v>42491</v>
+      </c>
+      <c r="H7" s="2">
+        <v>42948</v>
+      </c>
+      <c r="I7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>65000</v>
+      </c>
+      <c r="B8" s="7">
+        <v>65000</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6">
-        <v>43647</v>
-      </c>
-      <c r="I4" s="6">
-        <v>44013</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>42552</v>
+      </c>
+      <c r="H8" s="2">
+        <v>42948</v>
+      </c>
+      <c r="I8" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>33801</v>
-      </c>
-      <c r="B5" s="5">
-        <v>33801</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="6">
-        <v>43282</v>
-      </c>
-      <c r="I5" s="6">
-        <v>43647</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>67600</v>
-      </c>
-      <c r="B6" s="5">
-        <v>67600</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="6">
-        <v>42917</v>
-      </c>
-      <c r="I6" s="6">
-        <v>43282</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>99328</v>
-      </c>
-      <c r="B7" s="5">
-        <v>99328</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="6">
-        <v>42491</v>
-      </c>
-      <c r="I7" s="6">
-        <v>42948</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>65000</v>
-      </c>
-      <c r="B8" s="5">
-        <v>65000</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="6">
-        <v>42552</v>
-      </c>
-      <c r="I8" s="6">
-        <v>42948</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
